--- a/server/datas/sources/Liste des hotels.xlsx
+++ b/server/datas/sources/Liste des hotels.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isis\SHARESSP\IT\60 - Info_Telecom\00-Projets SI\Projets en cours\PHRH\2020\HETIC\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71659CFD-B6B2-4D7F-BC1B-7CBA8894C7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$774</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5931,7 +5925,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6264,14 +6258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F774"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F773"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
+      <selection activeCell="A774" sqref="A774:H776"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="22" customWidth="1"/>
@@ -6280,7 +6274,7 @@
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6300,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10745398</v>
       </c>
@@ -6320,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>25778400</v>
       </c>
@@ -6340,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23541506</v>
       </c>
@@ -6360,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>108</v>
       </c>
@@ -6380,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>148</v>
       </c>
@@ -6400,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7180332</v>
       </c>
@@ -6420,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>48342</v>
       </c>
@@ -6440,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>15659494</v>
       </c>
@@ -6460,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16118746</v>
       </c>
@@ -6480,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7380005</v>
       </c>
@@ -6500,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11649833</v>
       </c>
@@ -6520,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
@@ -6540,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27382978</v>
       </c>
@@ -6560,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15723170</v>
       </c>
@@ -6580,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15507073</v>
       </c>
@@ -6600,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7392500</v>
       </c>
@@ -6620,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4703221</v>
       </c>
@@ -6640,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>123</v>
       </c>
@@ -6660,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1254785</v>
       </c>
@@ -6680,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13254995</v>
       </c>
@@ -6700,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9240593</v>
       </c>
@@ -6720,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>66</v>
       </c>
@@ -6740,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3142715</v>
       </c>
@@ -6760,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>149</v>
       </c>
@@ -6780,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1247638</v>
       </c>
@@ -6800,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6271035</v>
       </c>
@@ -6820,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5934555</v>
       </c>
@@ -6840,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22694598</v>
       </c>
@@ -6860,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>159</v>
       </c>
@@ -6880,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>48387</v>
       </c>
@@ -6900,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3824053</v>
       </c>
@@ -6920,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5932172</v>
       </c>
@@ -6940,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5933028</v>
       </c>
@@ -6960,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5930278</v>
       </c>
@@ -6980,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20089477</v>
       </c>
@@ -7000,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5938942</v>
       </c>
@@ -7020,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13957346</v>
       </c>
@@ -7040,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>22831574</v>
       </c>
@@ -7060,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>92</v>
       </c>
@@ -7080,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>48398</v>
       </c>
@@ -7100,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3029096</v>
       </c>
@@ -7120,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>460385</v>
       </c>
@@ -7140,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12749144</v>
       </c>
@@ -7160,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62815</v>
       </c>
@@ -7180,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>161231</v>
       </c>
@@ -7200,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5930078</v>
       </c>
@@ -7220,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7246925</v>
       </c>
@@ -7240,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>104</v>
       </c>
@@ -7260,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5935010</v>
       </c>
@@ -7280,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>98</v>
       </c>
@@ -7300,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16661021</v>
       </c>
@@ -7320,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23374761</v>
       </c>
@@ -7340,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47906</v>
       </c>
@@ -7360,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6903988</v>
       </c>
@@ -7380,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7194217</v>
       </c>
@@ -7400,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9742620</v>
       </c>
@@ -7420,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6392783</v>
       </c>
@@ -7440,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>640004</v>
       </c>
@@ -7460,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>120</v>
       </c>
@@ -7480,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>22528257</v>
       </c>
@@ -7500,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>48266</v>
       </c>
@@ -7520,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>125</v>
       </c>
@@ -7540,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5929927</v>
       </c>
@@ -7560,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5934885</v>
       </c>
@@ -7580,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6099004</v>
       </c>
@@ -7600,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11921905</v>
       </c>
@@ -7620,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16180428</v>
       </c>
@@ -7640,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5928342</v>
       </c>
@@ -7660,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13992602</v>
       </c>
@@ -7680,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7880796</v>
       </c>
@@ -7700,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7926193</v>
       </c>
@@ -7720,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7786549</v>
       </c>
@@ -7740,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7229807</v>
       </c>
@@ -7760,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7867613</v>
       </c>
@@ -7780,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13255226</v>
       </c>
@@ -7800,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13959961</v>
       </c>
@@ -7820,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>65878</v>
       </c>
@@ -7840,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7887791</v>
       </c>
@@ -7860,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7981043</v>
       </c>
@@ -7880,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>47855</v>
       </c>
@@ -7900,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2555168</v>
       </c>
@@ -7920,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>907168</v>
       </c>
@@ -7940,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>69</v>
       </c>
@@ -7960,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6953001</v>
       </c>
@@ -7980,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>57932</v>
       </c>
@@ -8000,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>197</v>
       </c>
@@ -8020,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9828363</v>
       </c>
@@ -8040,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>166</v>
       </c>
@@ -8060,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>164</v>
       </c>
@@ -8080,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2081023</v>
       </c>
@@ -8100,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14417351</v>
       </c>
@@ -8120,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4928487</v>
       </c>
@@ -8140,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>85</v>
       </c>
@@ -8160,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19815767</v>
       </c>
@@ -8180,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>49420</v>
       </c>
@@ -8200,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9151571</v>
       </c>
@@ -8220,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>115</v>
       </c>
@@ -8240,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1352395</v>
       </c>
@@ -8260,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>15506958</v>
       </c>
@@ -8280,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1262186</v>
       </c>
@@ -8300,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>25495864</v>
       </c>
@@ -8320,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>8330577</v>
       </c>
@@ -8340,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>259377</v>
       </c>
@@ -8360,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>256</v>
       </c>
@@ -8380,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6934917</v>
       </c>
@@ -8400,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>173</v>
       </c>
@@ -8420,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>52913</v>
       </c>
@@ -8440,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>140</v>
       </c>
@@ -8460,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>47869</v>
       </c>
@@ -8480,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16884156</v>
       </c>
@@ -8500,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>48225</v>
       </c>
@@ -8520,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7391662</v>
       </c>
@@ -8540,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10173809</v>
       </c>
@@ -8560,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>48460</v>
       </c>
@@ -8580,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>223</v>
       </c>
@@ -8600,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20121036</v>
       </c>
@@ -8620,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>48532</v>
       </c>
@@ -8640,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7358996</v>
       </c>
@@ -8660,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
@@ -8680,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>160</v>
       </c>
@@ -8700,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>16</v>
       </c>
@@ -8720,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>9697125</v>
       </c>
@@ -8740,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20129616</v>
       </c>
@@ -8760,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>49158</v>
       </c>
@@ -8780,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>47968</v>
       </c>
@@ -8800,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6555360</v>
       </c>
@@ -8820,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6555369</v>
       </c>
@@ -8840,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>49517</v>
       </c>
@@ -8860,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>25486992</v>
       </c>
@@ -8880,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>25479256</v>
       </c>
@@ -8900,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24086531</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2785717</v>
       </c>
@@ -8940,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4217525</v>
       </c>
@@ -8960,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>52251</v>
       </c>
@@ -8980,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>867941</v>
       </c>
@@ -9000,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>212</v>
       </c>
@@ -9020,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>299</v>
       </c>
@@ -9040,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>200</v>
       </c>
@@ -9060,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5430438</v>
       </c>
@@ -9080,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7395654</v>
       </c>
@@ -9100,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1264487</v>
       </c>
@@ -9120,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3252998</v>
       </c>
@@ -9140,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>90</v>
       </c>
@@ -9160,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7392316</v>
       </c>
@@ -9180,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>23673526</v>
       </c>
@@ -9200,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4738937</v>
       </c>
@@ -9220,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>50560</v>
       </c>
@@ -9240,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>25495936</v>
       </c>
@@ -9260,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1260377</v>
       </c>
@@ -9280,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5305027</v>
       </c>
@@ -9300,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>26664256</v>
       </c>
@@ -9320,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9340,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>73</v>
       </c>
@@ -9360,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>23373334</v>
       </c>
@@ -9380,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1078575</v>
       </c>
@@ -9400,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>25488210</v>
       </c>
@@ -9420,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4831458</v>
       </c>
@@ -9440,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24388772</v>
       </c>
@@ -9460,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7044882</v>
       </c>
@@ -9480,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14842593</v>
       </c>
@@ -9500,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7397613</v>
       </c>
@@ -9520,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6356755</v>
       </c>
@@ -9540,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>96</v>
       </c>
@@ -9560,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4815821</v>
       </c>
@@ -9580,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>27560457</v>
       </c>
@@ -9600,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7397687</v>
       </c>
@@ -9620,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7781899</v>
       </c>
@@ -9640,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7786499</v>
       </c>
@@ -9660,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>48909</v>
       </c>
@@ -9680,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1447904</v>
       </c>
@@ -9700,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7786422</v>
       </c>
@@ -9720,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6384873</v>
       </c>
@@ -9740,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>69139</v>
       </c>
@@ -9760,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>52696</v>
       </c>
@@ -9780,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>167</v>
       </c>
@@ -9800,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>216</v>
       </c>
@@ -9820,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>161211</v>
       </c>
@@ -9840,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>81459</v>
       </c>
@@ -9860,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>153</v>
       </c>
@@ -9880,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5060386</v>
       </c>
@@ -9900,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5935970</v>
       </c>
@@ -9920,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2420298</v>
       </c>
@@ -9940,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1020954</v>
       </c>
@@ -9960,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>15929464</v>
       </c>
@@ -9980,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>51243</v>
       </c>
@@ -10000,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1253239</v>
       </c>
@@ -10020,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>75</v>
       </c>
@@ -10040,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>52</v>
       </c>
@@ -10060,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>19263394</v>
       </c>
@@ -10080,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>7392374</v>
       </c>
@@ -10100,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>243</v>
       </c>
@@ -10120,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7760496</v>
       </c>
@@ -10140,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>14664544</v>
       </c>
@@ -10160,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3697019</v>
       </c>
@@ -10180,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>14912195</v>
       </c>
@@ -10200,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>103</v>
       </c>
@@ -10220,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20399099</v>
       </c>
@@ -10240,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1261006</v>
       </c>
@@ -10260,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7923060</v>
       </c>
@@ -10280,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>14605715</v>
       </c>
@@ -10300,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>21128495</v>
       </c>
@@ -10320,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4882372</v>
       </c>
@@ -10340,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>11416173</v>
       </c>
@@ -10360,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3563954</v>
       </c>
@@ -10380,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9270245</v>
       </c>
@@ -10400,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>25501101</v>
       </c>
@@ -10420,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4562673</v>
       </c>
@@ -10440,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1920619</v>
       </c>
@@ -10460,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>24507866</v>
       </c>
@@ -10480,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5907295</v>
       </c>
@@ -10500,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3901982</v>
       </c>
@@ -10520,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>421836</v>
       </c>
@@ -10540,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4804048</v>
       </c>
@@ -10560,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3664276</v>
       </c>
@@ -10580,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>23829183</v>
       </c>
@@ -10600,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>20247612</v>
       </c>
@@ -10620,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4832192</v>
       </c>
@@ -10640,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1234503</v>
       </c>
@@ -10660,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>25861542</v>
       </c>
@@ -10680,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>910062</v>
       </c>
@@ -10700,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4808908</v>
       </c>
@@ -10720,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5882742</v>
       </c>
@@ -10740,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>25441334</v>
       </c>
@@ -10760,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>930549</v>
       </c>
@@ -10780,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>3604084</v>
       </c>
@@ -10800,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4376525</v>
       </c>
@@ -10820,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>6088952</v>
       </c>
@@ -10840,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5890205</v>
       </c>
@@ -10860,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5125410</v>
       </c>
@@ -10880,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20584007</v>
       </c>
@@ -10900,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5566418</v>
       </c>
@@ -10920,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1158151</v>
       </c>
@@ -10940,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1258237</v>
       </c>
@@ -10960,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8781311</v>
       </c>
@@ -10980,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>6093123</v>
       </c>
@@ -11000,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>24290502</v>
       </c>
@@ -11020,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>80441</v>
       </c>
@@ -11040,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4804002</v>
       </c>
@@ -11060,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>19072072</v>
       </c>
@@ -11080,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>19096763</v>
       </c>
@@ -11100,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4804052</v>
       </c>
@@ -11120,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>23</v>
       </c>
@@ -11140,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>23736534</v>
       </c>
@@ -11160,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>7481499</v>
       </c>
@@ -11180,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>15449414</v>
       </c>
@@ -11200,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>290</v>
       </c>
@@ -11220,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>21561328</v>
       </c>
@@ -11240,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>11139821</v>
       </c>
@@ -11260,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>24561448</v>
       </c>
@@ -11280,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>15952434</v>
       </c>
@@ -11300,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1226392</v>
       </c>
@@ -11320,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4804062</v>
       </c>
@@ -11340,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>24289505</v>
       </c>
@@ -11360,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1206832</v>
       </c>
@@ -11380,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4332555</v>
       </c>
@@ -11400,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>9966721</v>
       </c>
@@ -11420,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4804009</v>
       </c>
@@ -11440,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2545981</v>
       </c>
@@ -11460,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>19935240</v>
       </c>
@@ -11480,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5566388</v>
       </c>
@@ -11500,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1057429</v>
       </c>
@@ -11520,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3455880</v>
       </c>
@@ -11540,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>22994708</v>
       </c>
@@ -11560,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>26428801</v>
       </c>
@@ -11580,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3030771</v>
       </c>
@@ -11600,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2555609</v>
       </c>
@@ -11620,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>5979051</v>
       </c>
@@ -11640,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>7274439</v>
       </c>
@@ -11660,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4343658</v>
       </c>
@@ -11680,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4851240</v>
       </c>
@@ -11700,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>24651949</v>
       </c>
@@ -11720,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>5542688</v>
       </c>
@@ -11740,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3454388</v>
       </c>
@@ -11760,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>25170249</v>
       </c>
@@ -11780,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>9246012</v>
       </c>
@@ -11800,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4020501</v>
       </c>
@@ -11820,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>24777633</v>
       </c>
@@ -11840,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>5044762</v>
       </c>
@@ -11860,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>20527602</v>
       </c>
@@ -11880,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>14378783</v>
       </c>
@@ -11900,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>25567696</v>
       </c>
@@ -11920,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>19935177</v>
       </c>
@@ -11940,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>24817638</v>
       </c>
@@ -11960,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2972733</v>
       </c>
@@ -11980,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>11301318</v>
       </c>
@@ -12000,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>8550719</v>
       </c>
@@ -12020,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>24666836</v>
       </c>
@@ -12040,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>161263</v>
       </c>
@@ -12060,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>14959327</v>
       </c>
@@ -12080,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>20086001</v>
       </c>
@@ -12100,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4353758</v>
       </c>
@@ -12120,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>11062680</v>
       </c>
@@ -12140,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1254903</v>
       </c>
@@ -12160,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>5033615</v>
       </c>
@@ -12180,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>10236439</v>
       </c>
@@ -12200,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>9102433</v>
       </c>
@@ -12220,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>25214173</v>
       </c>
@@ -12240,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1435108</v>
       </c>
@@ -12260,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>949480</v>
       </c>
@@ -12280,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>6418202</v>
       </c>
@@ -12300,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5234143</v>
       </c>
@@ -12320,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>26500133</v>
       </c>
@@ -12340,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4851079</v>
       </c>
@@ -12360,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>19935176</v>
       </c>
@@ -12380,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>4351223</v>
       </c>
@@ -12400,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>260</v>
       </c>
@@ -12420,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>21930736</v>
       </c>
@@ -12440,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>24907346</v>
       </c>
@@ -12460,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14373893</v>
       </c>
@@ -12480,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>26379581</v>
       </c>
@@ -12500,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1859537</v>
       </c>
@@ -12520,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1257247</v>
       </c>
@@ -12540,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1261124</v>
       </c>
@@ -12560,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>24654178</v>
       </c>
@@ -12580,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>26385370</v>
       </c>
@@ -12600,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>24955741</v>
       </c>
@@ -12620,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>26462251</v>
       </c>
@@ -12640,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>26462211</v>
       </c>
@@ -12660,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>24902477</v>
       </c>
@@ -12680,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>4224502</v>
       </c>
@@ -12700,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>24955911</v>
       </c>
@@ -12720,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4224503</v>
       </c>
@@ -12740,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>6094875</v>
       </c>
@@ -12760,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1262936</v>
       </c>
@@ -12780,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>24861234</v>
       </c>
@@ -12800,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>26379164</v>
       </c>
@@ -12820,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1206831</v>
       </c>
@@ -12840,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>25091750</v>
       </c>
@@ -12860,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>27551923</v>
       </c>
@@ -12880,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>21514076</v>
       </c>
@@ -12900,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>20583435</v>
       </c>
@@ -12920,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>24977397</v>
       </c>
@@ -12940,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>25218457</v>
       </c>
@@ -12960,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>26379349</v>
       </c>
@@ -12980,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>26379451</v>
       </c>
@@ -13000,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>157</v>
       </c>
@@ -13020,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>19935135</v>
       </c>
@@ -13040,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5887743</v>
       </c>
@@ -13060,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>27551838</v>
       </c>
@@ -13080,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1859533</v>
       </c>
@@ -13100,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>26384925</v>
       </c>
@@ -13120,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>26385181</v>
       </c>
@@ -13140,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>26385437</v>
       </c>
@@ -13160,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>3354561</v>
       </c>
@@ -13180,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>6203778</v>
       </c>
@@ -13200,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>25218497</v>
       </c>
@@ -13220,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>19935230</v>
       </c>
@@ -13240,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>20890889</v>
       </c>
@@ -13260,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>8805065</v>
       </c>
@@ -13280,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>25170110</v>
       </c>
@@ -13300,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>322790</v>
       </c>
@@ -13320,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>26383787</v>
       </c>
@@ -13340,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>26384134</v>
       </c>
@@ -13360,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>24985547</v>
       </c>
@@ -13380,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2616997</v>
       </c>
@@ -13400,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4367703</v>
       </c>
@@ -13420,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>803397</v>
       </c>
@@ -13440,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1260702</v>
       </c>
@@ -13460,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4108457</v>
       </c>
@@ -13480,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>4352843</v>
       </c>
@@ -13500,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>5928723</v>
       </c>
@@ -13520,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>15590051</v>
       </c>
@@ -13540,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1853843</v>
       </c>
@@ -13560,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2428909</v>
       </c>
@@ -13580,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1853928</v>
       </c>
@@ -13600,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>19935137</v>
       </c>
@@ -13620,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>3456916</v>
       </c>
@@ -13640,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>392974</v>
       </c>
@@ -13660,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>19935136</v>
       </c>
@@ -13680,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1614943</v>
       </c>
@@ -13700,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>24628074</v>
       </c>
@@ -13720,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>27834307</v>
       </c>
@@ -13740,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>24988383</v>
       </c>
@@ -13760,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>24988313</v>
       </c>
@@ -13780,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>26379322</v>
       </c>
@@ -13800,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>25173125</v>
       </c>
@@ -13820,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2404088</v>
       </c>
@@ -13840,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1704948</v>
       </c>
@@ -13860,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>25036991</v>
       </c>
@@ -13880,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>27626092</v>
       </c>
@@ -13900,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>19725423</v>
       </c>
@@ -13920,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>21499566</v>
       </c>
@@ -13940,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>6573888</v>
       </c>
@@ -13960,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>26402569</v>
       </c>
@@ -13980,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>4025471</v>
       </c>
@@ -14000,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>24955275</v>
       </c>
@@ -14020,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>25253390</v>
       </c>
@@ -14040,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>5566414</v>
       </c>
@@ -14060,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>393009</v>
       </c>
@@ -14080,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3442279</v>
       </c>
@@ -14100,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>24956001</v>
       </c>
@@ -14120,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>138</v>
       </c>
@@ -14140,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>26384724</v>
       </c>
@@ -14160,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>5583984</v>
       </c>
@@ -14180,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>26384869</v>
       </c>
@@ -14200,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>3293094</v>
       </c>
@@ -14220,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>27216425</v>
       </c>
@@ -14240,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1253389</v>
       </c>
@@ -14260,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1245162</v>
       </c>
@@ -14280,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>3986001</v>
       </c>
@@ -14300,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>5234164</v>
       </c>
@@ -14320,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4473784</v>
       </c>
@@ -14340,7 +14334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>34</v>
       </c>
@@ -14360,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>129</v>
       </c>
@@ -14380,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>8303143</v>
       </c>
@@ -14400,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>4954710</v>
       </c>
@@ -14420,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>14378772</v>
       </c>
@@ -14440,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>23406821</v>
       </c>
@@ -14460,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>5453124</v>
       </c>
@@ -14480,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>23675865</v>
       </c>
@@ -14500,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>25559052</v>
       </c>
@@ -14520,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>25229294</v>
       </c>
@@ -14540,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1254053</v>
       </c>
@@ -14560,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>11649774</v>
       </c>
@@ -14580,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2218473</v>
       </c>
@@ -14600,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>25441385</v>
       </c>
@@ -14620,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>25534491</v>
       </c>
@@ -14640,7 +14634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>25535074</v>
       </c>
@@ -14660,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>11520329</v>
       </c>
@@ -14680,7 +14674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>106</v>
       </c>
@@ -14700,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>11153116</v>
       </c>
@@ -14720,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>253</v>
       </c>
@@ -14740,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>6612425</v>
       </c>
@@ -14760,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1264648</v>
       </c>
@@ -14780,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>51022</v>
       </c>
@@ -14800,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2030211</v>
       </c>
@@ -14820,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>3075068</v>
       </c>
@@ -14840,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>7224252</v>
       </c>
@@ -14860,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>728948</v>
       </c>
@@ -14880,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>5528804</v>
       </c>
@@ -14900,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>151</v>
       </c>
@@ -14920,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9414797</v>
       </c>
@@ -14940,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>554069</v>
       </c>
@@ -14960,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>215</v>
       </c>
@@ -14980,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>19935134</v>
       </c>
@@ -15000,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>25241551</v>
       </c>
@@ -15020,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>823450</v>
       </c>
@@ -15040,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1354504</v>
       </c>
@@ -15060,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>25558943</v>
       </c>
@@ -15080,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>25534391</v>
       </c>
@@ -15100,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>4566388</v>
       </c>
@@ -15120,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>23876013</v>
       </c>
@@ -15140,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4736031</v>
       </c>
@@ -15160,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>26384941</v>
       </c>
@@ -15180,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2187408</v>
       </c>
@@ -15200,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>245</v>
       </c>
@@ -15220,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>25534486</v>
       </c>
@@ -15240,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>25534473</v>
       </c>
@@ -15260,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>767386</v>
       </c>
@@ -15280,7 +15274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>6372765</v>
       </c>
@@ -15300,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>608975</v>
       </c>
@@ -15320,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4213640</v>
       </c>
@@ -15340,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>25096188</v>
       </c>
@@ -15360,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>4584998</v>
       </c>
@@ -15380,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>16168803</v>
       </c>
@@ -15400,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>25501632</v>
       </c>
@@ -15420,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>25534426</v>
       </c>
@@ -15440,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>12425680</v>
       </c>
@@ -15460,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>25456597</v>
       </c>
@@ -15480,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>20888697</v>
       </c>
@@ -15500,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>5110666</v>
       </c>
@@ -15520,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>25533960</v>
       </c>
@@ -15540,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>14378798</v>
       </c>
@@ -15560,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>1300095</v>
       </c>
@@ -15580,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>19935130</v>
       </c>
@@ -15600,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>3058270</v>
       </c>
@@ -15620,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>5711944</v>
       </c>
@@ -15640,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>80086</v>
       </c>
@@ -15660,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>51131</v>
       </c>
@@ -15680,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>1763138</v>
       </c>
@@ -15700,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1858005</v>
       </c>
@@ -15720,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>1648178</v>
       </c>
@@ -15740,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>25535039</v>
       </c>
@@ -15760,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>3280288</v>
       </c>
@@ -15780,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>5981053</v>
       </c>
@@ -15800,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>37</v>
       </c>
@@ -15820,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>193</v>
       </c>
@@ -15840,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>25534853</v>
       </c>
@@ -15860,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>52916</v>
       </c>
@@ -15880,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>14303523</v>
       </c>
@@ -15900,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>24860232</v>
       </c>
@@ -15920,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>13986834</v>
       </c>
@@ -15940,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>800469</v>
       </c>
@@ -15960,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>20336889</v>
       </c>
@@ -15980,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>800748</v>
       </c>
@@ -16000,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>14005934</v>
       </c>
@@ -16020,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>1138275</v>
       </c>
@@ -16040,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>731174</v>
       </c>
@@ -16060,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>27256149</v>
       </c>
@@ -16080,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2137579</v>
       </c>
@@ -16100,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>216066</v>
       </c>
@@ -16120,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>556560</v>
       </c>
@@ -16140,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>27397286</v>
       </c>
@@ -16160,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>8790785</v>
       </c>
@@ -16180,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>980748</v>
       </c>
@@ -16200,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>50996</v>
       </c>
@@ -16220,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>22847186</v>
       </c>
@@ -16240,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2173005</v>
       </c>
@@ -16260,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>7033289</v>
       </c>
@@ -16280,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>14605069</v>
       </c>
@@ -16300,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>1294430</v>
       </c>
@@ -16320,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2420329</v>
       </c>
@@ -16340,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>19846365</v>
       </c>
@@ -16360,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>23563260</v>
       </c>
@@ -16380,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>954053</v>
       </c>
@@ -16400,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>800523</v>
       </c>
@@ -16420,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>14223260</v>
       </c>
@@ -16440,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>14004961</v>
       </c>
@@ -16460,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>14287604</v>
       </c>
@@ -16480,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>801551</v>
       </c>
@@ -16500,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>1267729</v>
       </c>
@@ -16520,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>7432846</v>
       </c>
@@ -16540,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>24357923</v>
       </c>
@@ -16560,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>20660124</v>
       </c>
@@ -16580,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>16267959</v>
       </c>
@@ -16600,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>25488473</v>
       </c>
@@ -16620,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>176</v>
       </c>
@@ -16640,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>453885</v>
       </c>
@@ -16660,7 +16654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>9407695</v>
       </c>
@@ -16680,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>418798</v>
       </c>
@@ -16700,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>800619</v>
       </c>
@@ -16720,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1265157</v>
       </c>
@@ -16740,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>4998743</v>
       </c>
@@ -16760,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>3607667</v>
       </c>
@@ -16780,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>24358186</v>
       </c>
@@ -16800,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>20368560</v>
       </c>
@@ -16820,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>5566387</v>
       </c>
@@ -16840,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>25455193</v>
       </c>
@@ -16860,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>5296791</v>
       </c>
@@ -16880,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>3057762</v>
       </c>
@@ -16900,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>1171954</v>
       </c>
@@ -16920,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>6891109</v>
       </c>
@@ -16940,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5527698</v>
       </c>
@@ -16960,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>251</v>
       </c>
@@ -16980,7 +16974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>284</v>
       </c>
@@ -17000,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4256549</v>
       </c>
@@ -17020,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>81514</v>
       </c>
@@ -17040,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>207</v>
       </c>
@@ -17060,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>885126</v>
       </c>
@@ -17080,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>5138450</v>
       </c>
@@ -17100,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>230</v>
       </c>
@@ -17120,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>1960235</v>
       </c>
@@ -17140,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>5978907</v>
       </c>
@@ -17160,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>13956672</v>
       </c>
@@ -17180,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>12225371</v>
       </c>
@@ -17200,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>51668</v>
       </c>
@@ -17220,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>4651930</v>
       </c>
@@ -17240,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>241</v>
       </c>
@@ -17260,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>4710253</v>
       </c>
@@ -17280,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>24365976</v>
       </c>
@@ -17300,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>155</v>
       </c>
@@ -17320,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>1172382</v>
       </c>
@@ -17340,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>19885581</v>
       </c>
@@ -17360,7 +17354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>23875242</v>
       </c>
@@ -17380,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>91</v>
       </c>
@@ -17400,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>4858329</v>
       </c>
@@ -17420,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>7847674</v>
       </c>
@@ -17440,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>24</v>
       </c>
@@ -17460,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>6890857</v>
       </c>
@@ -17480,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>9230021</v>
       </c>
@@ -17500,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>23322079</v>
       </c>
@@ -17520,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>23541896</v>
       </c>
@@ -17540,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>713205</v>
       </c>
@@ -17560,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>1264509</v>
       </c>
@@ -17580,7 +17574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>1853457</v>
       </c>
@@ -17600,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>740087</v>
       </c>
@@ -17620,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>4562985</v>
       </c>
@@ -17640,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>2338121</v>
       </c>
@@ -17660,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>2330359</v>
       </c>
@@ -17680,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>5550287</v>
       </c>
@@ -17700,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>252</v>
       </c>
@@ -17720,7 +17714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>10479331</v>
       </c>
@@ -17740,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>244</v>
       </c>
@@ -17760,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>22</v>
       </c>
@@ -17780,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>20368332</v>
       </c>
@@ -17800,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>25445312</v>
       </c>
@@ -17820,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>4116549</v>
       </c>
@@ -17840,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>95</v>
       </c>
@@ -17860,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1532368</v>
       </c>
@@ -17880,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>24362544</v>
       </c>
@@ -17900,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>19884838</v>
       </c>
@@ -17920,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>14286816</v>
       </c>
@@ -17940,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>23806744</v>
       </c>
@@ -17960,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>21832132</v>
       </c>
@@ -17980,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>64481</v>
       </c>
@@ -18000,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1077433</v>
       </c>
@@ -18020,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>14287706</v>
       </c>
@@ -18040,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>8813408</v>
       </c>
@@ -18060,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>151274</v>
       </c>
@@ -18080,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>4561374</v>
       </c>
@@ -18100,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>1084602</v>
       </c>
@@ -18120,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>5858055</v>
       </c>
@@ -18140,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>84305</v>
       </c>
@@ -18160,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>27243042</v>
       </c>
@@ -18180,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>812726</v>
       </c>
@@ -18200,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>9415502</v>
       </c>
@@ -18220,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>6206151</v>
       </c>
@@ -18240,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>23525950</v>
       </c>
@@ -18260,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>9967463</v>
       </c>
@@ -18280,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>1867110</v>
       </c>
@@ -18300,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3057757</v>
       </c>
@@ -18320,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>1134590</v>
       </c>
@@ -18340,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>20921562</v>
       </c>
@@ -18360,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>25488192</v>
       </c>
@@ -18380,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>4793035</v>
       </c>
@@ -18400,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>7880901</v>
       </c>
@@ -18420,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>420974</v>
       </c>
@@ -18440,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>4653198</v>
       </c>
@@ -18460,7 +18454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>3583280</v>
       </c>
@@ -18480,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>1253617</v>
       </c>
@@ -18500,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>1535883</v>
       </c>
@@ -18520,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1260407</v>
       </c>
@@ -18540,7 +18534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>22527084</v>
       </c>
@@ -18560,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>4002347</v>
       </c>
@@ -18580,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>8303060</v>
       </c>
@@ -18600,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>52699</v>
       </c>
@@ -18620,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>8359032</v>
       </c>
@@ -18640,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>5941551</v>
       </c>
@@ -18660,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>51055</v>
       </c>
@@ -18680,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>25487773</v>
       </c>
@@ -18700,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>161235</v>
       </c>
@@ -18720,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>23889821</v>
       </c>
@@ -18740,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>4327687</v>
       </c>
@@ -18760,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>20369466</v>
       </c>
@@ -18780,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>286</v>
       </c>
@@ -18800,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>4895265</v>
       </c>
@@ -18820,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>25</v>
       </c>
@@ -18840,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>6949403</v>
       </c>
@@ -18860,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>50983</v>
       </c>
@@ -18880,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>7392307</v>
       </c>
@@ -18900,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>416059</v>
       </c>
@@ -18920,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>2354691</v>
       </c>
@@ -18940,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>5428639</v>
       </c>
@@ -18960,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>8734005</v>
       </c>
@@ -18980,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>21164695</v>
       </c>
@@ -19000,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>80087</v>
       </c>
@@ -19020,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>420980</v>
       </c>
@@ -19040,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>133</v>
       </c>
@@ -19060,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>27143721</v>
       </c>
@@ -19080,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>25495893</v>
       </c>
@@ -19100,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>248</v>
       </c>
@@ -19120,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>4585075</v>
       </c>
@@ -19140,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>181035</v>
       </c>
@@ -19160,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>25319044</v>
       </c>
@@ -19180,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>1180885</v>
       </c>
@@ -19200,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>22851999</v>
       </c>
@@ -19220,7 +19214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>3917540</v>
       </c>
@@ -19240,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>3173231</v>
       </c>
@@ -19260,7 +19254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>372196</v>
       </c>
@@ -19280,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>7625607</v>
       </c>
@@ -19300,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>25253563</v>
       </c>
@@ -19320,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>183</v>
       </c>
@@ -19340,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>238</v>
       </c>
@@ -19360,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>1364834</v>
       </c>
@@ -19380,7 +19374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>1571414</v>
       </c>
@@ -19400,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>27551876</v>
       </c>
@@ -19420,7 +19414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>24821600</v>
       </c>
@@ -19440,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>15797187</v>
       </c>
@@ -19460,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>108463</v>
       </c>
@@ -19480,7 +19474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>1353727</v>
       </c>
@@ -19500,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>6098993</v>
       </c>
@@ -19520,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>7789760</v>
       </c>
@@ -19540,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>24593631</v>
       </c>
@@ -19560,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>11058360</v>
       </c>
@@ -19580,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>80345</v>
       </c>
@@ -19600,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>2163605</v>
       </c>
@@ -19620,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>156</v>
       </c>
@@ -19640,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>13992521</v>
       </c>
@@ -19660,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>25253582</v>
       </c>
@@ -19680,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>26384587</v>
       </c>
@@ -19700,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>12030089</v>
       </c>
@@ -19720,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>23527373</v>
       </c>
@@ -19740,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>6463814</v>
       </c>
@@ -19760,7 +19754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>24502367</v>
       </c>
@@ -19780,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>24480015</v>
       </c>
@@ -19800,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>297</v>
       </c>
@@ -19820,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>19935133</v>
       </c>
@@ -19840,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>19935132</v>
       </c>
@@ -19860,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>7038525</v>
       </c>
@@ -19880,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>4417689</v>
       </c>
@@ -19900,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>21659062</v>
       </c>
@@ -19920,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>1377154</v>
       </c>
@@ -19940,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>249</v>
       </c>
@@ -19960,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>38</v>
       </c>
@@ -19980,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>234</v>
       </c>
@@ -20000,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>13775404</v>
       </c>
@@ -20020,7 +20014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>25488096</v>
       </c>
@@ -20040,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>12526351</v>
       </c>
@@ -20060,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>2921538</v>
       </c>
@@ -20080,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>22551388</v>
       </c>
@@ -20100,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>219</v>
       </c>
@@ -20120,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>24586199</v>
       </c>
@@ -20140,7 +20134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>959483</v>
       </c>
@@ -20160,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>4866879</v>
       </c>
@@ -20180,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>259</v>
       </c>
@@ -20200,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>135</v>
       </c>
@@ -20220,7 +20214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>161</v>
       </c>
@@ -20240,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>25486928</v>
       </c>
@@ -20260,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>446500</v>
       </c>
@@ -20280,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>24988906</v>
       </c>
@@ -20300,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>25218361</v>
       </c>
@@ -20320,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>7880928</v>
       </c>
@@ -20340,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>23542903</v>
       </c>
@@ -20360,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>51197</v>
       </c>
@@ -20380,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>25495810</v>
       </c>
@@ -20400,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>25095967</v>
       </c>
@@ -20420,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>26200411</v>
       </c>
@@ -20440,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>25531755</v>
       </c>
@@ -20460,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>3684549</v>
       </c>
@@ -20480,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>25161986</v>
       </c>
@@ -20500,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>4997664</v>
       </c>
@@ -20520,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>83974</v>
       </c>
@@ -20540,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>25253412</v>
       </c>
@@ -20560,7 +20554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>4311879</v>
       </c>
@@ -20580,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>3044806</v>
       </c>
@@ -20600,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>22512102</v>
       </c>
@@ -20620,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>19935129</v>
       </c>
@@ -20640,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1743995</v>
       </c>
@@ -20660,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>4722656</v>
       </c>
@@ -20680,7 +20674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>14374110</v>
       </c>
@@ -20700,7 +20694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>14038432</v>
       </c>
@@ -20720,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>19935171</v>
       </c>
@@ -20740,7 +20734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>5546429</v>
       </c>
@@ -20760,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>26485985</v>
       </c>
@@ -20780,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>9840352</v>
       </c>
@@ -20800,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>1359742</v>
       </c>
@@ -20820,7 +20814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>27626182</v>
       </c>
@@ -20840,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>3496104</v>
       </c>
@@ -20860,7 +20854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>24855051</v>
       </c>
@@ -20880,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>237103</v>
       </c>
@@ -20900,7 +20894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>981874</v>
       </c>
@@ -20920,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>742467</v>
       </c>
@@ -20940,7 +20934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>5234210</v>
       </c>
@@ -20960,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>22519230</v>
       </c>
@@ -20980,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>23777747</v>
       </c>
@@ -21000,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>6407680</v>
       </c>
@@ -21020,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>25439759</v>
       </c>
@@ -21040,7 +21034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>418050</v>
       </c>
@@ -21060,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>25218532</v>
       </c>
@@ -21080,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>25359096</v>
       </c>
@@ -21100,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>1032808</v>
       </c>
@@ -21120,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>291</v>
       </c>
@@ -21140,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>193469</v>
       </c>
@@ -21160,7 +21154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>194218</v>
       </c>
@@ -21180,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>3663576</v>
       </c>
@@ -21200,7 +21194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>15096915</v>
       </c>
@@ -21220,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>26479516</v>
       </c>
@@ -21240,7 +21234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>1260465</v>
       </c>
@@ -21260,7 +21254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>25441226</v>
       </c>
@@ -21280,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>52823</v>
       </c>
@@ -21300,7 +21294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>669128</v>
       </c>
@@ -21320,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>5009917</v>
       </c>
@@ -21340,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>1285486</v>
       </c>
@@ -21360,7 +21354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>8092364</v>
       </c>
@@ -21380,7 +21374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>25170031</v>
       </c>
@@ -21400,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>1644672</v>
       </c>
@@ -21420,7 +21414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>3785389</v>
       </c>
@@ -21440,7 +21434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>3153240</v>
       </c>
@@ -21460,7 +21454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>3663412</v>
       </c>
@@ -21480,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>80532</v>
       </c>
@@ -21500,7 +21494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>1257403</v>
       </c>
@@ -21520,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>1377047</v>
       </c>
@@ -21540,7 +21534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>1101162</v>
       </c>
@@ -21560,7 +21554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>3512689</v>
       </c>
@@ -21580,7 +21574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>3999238</v>
       </c>
@@ -21600,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>3604140</v>
       </c>
@@ -21620,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>4128055</v>
       </c>
@@ -21640,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>805214</v>
       </c>
@@ -21660,7 +21654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>25253406</v>
       </c>
@@ -21680,7 +21674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>25253598</v>
       </c>
@@ -21700,7 +21694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>25488045</v>
       </c>
@@ -21720,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>27153271</v>
       </c>
@@ -21740,16 +21734,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A774">
-        <v>0</v>
-      </c>
-      <c r="F774">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F774" xr:uid="{BF24844B-EC50-4906-ABEA-1E17D497B620}"/>
+  <autoFilter ref="A1:F774"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>